--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200304.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/zhejiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\zhejiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D2975-0B8C-DC49-8AAA-F29A5ADC924E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16358AF1-34FA-44DA-904B-8B8C0147349A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="1440" windowWidth="19524" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10623,12 +10623,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="新数据表"/>
       <sheetName val="中国各省市区县数据"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10899,47 +10897,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="135" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="13" customWidth="1"/>
+    <col min="20" max="20" width="31.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="13"/>
+    <col min="40" max="40" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11061,7 +11059,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="16.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -11128,7 +11126,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="16.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -11181,7 +11179,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="16.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -11240,7 +11238,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="16.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -11293,7 +11291,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="16.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -11346,7 +11344,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="16.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -11399,7 +11397,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="16.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -11452,7 +11450,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="16.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -11508,7 +11506,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="16.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -11561,7 +11559,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="16.2">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -11617,7 +11615,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="16.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -11670,7 +11668,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="16.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -11726,7 +11724,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="16.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -11782,7 +11780,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="16.2">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -11885,7 +11883,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{07978CB6-F70C-4044-BED2-EFABB2019499}">
           <x14:formula1>
-            <xm:f>'/Users/nicole/Desktop/ncp/[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
+            <xm:f>'C:\Users\nicole\Desktop\ncp\[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F15</xm:sqref>
         </x14:dataValidation>
@@ -11904,10 +11902,10 @@
       <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200304.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200304.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\zhejiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16358AF1-34FA-44DA-904B-8B8C0147349A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDEEF19-C2D9-4730-931E-759AD33090EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1728" yWindow="1440" windowWidth="19524" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10897,8 +10897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="135" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -11800,7 +11800,9 @@
         <v>20</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="22">
+        <v>2</v>
+      </c>
       <c r="K15" s="13">
         <v>23</v>
       </c>
